--- a/data/trans_bre/P1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-7.269271594746899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.2132217554594446</v>
+        <v>-0.2132217554594473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1745933230115533</v>
@@ -649,7 +649,7 @@
         <v>-0.3367374457962333</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.01236183132956617</v>
+        <v>-0.01236183132956633</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.649015780842297</v>
+        <v>-2.549302302581737</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.122687154414065</v>
+        <v>-2.913835544419611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.111176176319</v>
+        <v>-13.38815728003689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.85508272387071</v>
+        <v>-4.825159646642837</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2844412520177911</v>
+        <v>-0.2746069546280586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2438940718447647</v>
+        <v>-0.2266469296041438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.544378040532601</v>
+        <v>-0.5414622110348416</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2380941202671784</v>
+        <v>-0.2396882526071844</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.490219226748107</v>
+        <v>6.03531434880597</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.094297460705917</v>
+        <v>7.285879923100892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.333456490759543</v>
+        <v>-1.775353646303886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.903109760276381</v>
+        <v>4.038416903332203</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9429279064166867</v>
+        <v>1.001425456535019</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.813803183775923</v>
+        <v>0.8151118454211094</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.07549185251266098</v>
+        <v>-0.0868725196093386</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.263652102828823</v>
+        <v>0.2667049198877038</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.688422392795638</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.964682460982047</v>
+        <v>-3.964682460982044</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4004900370020177</v>
@@ -749,7 +749,7 @@
         <v>0.2674260094966066</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2157536675383231</v>
+        <v>-0.215753667538323</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.856501018009737</v>
+        <v>-9.261361063810924</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.298590569442995</v>
+        <v>-5.348754487170653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.038795622428997</v>
+        <v>-1.904101137511894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.996080527238018</v>
+        <v>-8.925162781705978</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6315983497008696</v>
+        <v>-0.6259024918304423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.500160807400533</v>
+        <v>-0.5043339129441686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1726215837682058</v>
+        <v>-0.1657746978160488</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.416324498140889</v>
+        <v>-0.4103777683725019</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.7777130328559604</v>
+        <v>-0.2451835041447929</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.929230974504221</v>
+        <v>3.091127465819035</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.694342348383946</v>
+        <v>7.364548352146961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2686083579558344</v>
+        <v>0.2175553095263683</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.06197428925219382</v>
+        <v>-0.01306603630929762</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4487010894317471</v>
+        <v>0.4896144458486768</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9877236403352521</v>
+        <v>0.9894705908684844</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0169167250288704</v>
+        <v>0.02093722347634686</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.086948327101272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.705422228496815</v>
+        <v>2.705422228496817</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1519853347849388</v>
@@ -849,7 +849,7 @@
         <v>0.5713615053396829</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1498129742967962</v>
+        <v>0.1498129742967963</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.1351451554838</v>
+        <v>-2.909104970430522</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.506626014949325</v>
+        <v>-1.117443778119726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2882984227471624</v>
+        <v>-0.5711288340420602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.621327386217914</v>
+        <v>-2.842807704034606</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4735236199302009</v>
+        <v>-0.4651571443151758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1517330455954605</v>
+        <v>-0.1360674817801382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01950493655920705</v>
+        <v>-0.07377665999977844</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1334036578049691</v>
+        <v>-0.1442035569263469</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.844343205703177</v>
+        <v>5.649334033176498</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.173468358084962</v>
+        <v>8.21696572005045</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.07241281018602</v>
+        <v>13.26913476393601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.709178189030142</v>
+        <v>8.888746794495429</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.340780269869479</v>
+        <v>1.298378687576803</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.203023527323442</v>
+        <v>1.267060891115619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.508442536351646</v>
+        <v>1.464331702667203</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5450676757083825</v>
+        <v>0.5911552565125484</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.497683637620024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.129350862559742</v>
+        <v>-5.129350862559745</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07625942829129036</v>
@@ -949,7 +949,7 @@
         <v>0.2393922789401065</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2638617418201706</v>
+        <v>-0.2638617418201707</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.903851728834204</v>
+        <v>-1.715878660260861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.819124648418166</v>
+        <v>-5.710173441717103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7327988985660838</v>
+        <v>-0.521684746607089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.21901594669071</v>
+        <v>-8.570579765294269</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2627676004545603</v>
+        <v>-0.2220114608595045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5891796544532635</v>
+        <v>-0.5720077950129725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06650085353082737</v>
+        <v>-0.04460440131874304</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3853933350512433</v>
+        <v>-0.3954144613403398</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.910517270209609</v>
+        <v>3.198890563185342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.6999890386995568</v>
+        <v>-0.8262786689623507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.289660150723164</v>
+        <v>5.446300986529884</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.076607131336329</v>
+        <v>-2.107752564660522</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5002624582834</v>
+        <v>0.5482363303634802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.08511580214261427</v>
+        <v>-0.0845374030210609</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5627013300531024</v>
+        <v>0.584433691512105</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1140018531477036</v>
+        <v>-0.1175152451546084</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-3.515924820689098</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.546385080725446</v>
+        <v>-4.54638508072544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1765815970384128</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2349464651293819</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1832069696352575</v>
+        <v>-0.1832069696352574</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.33145635141413</v>
+        <v>-5.778546622039544</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9336790976689984</v>
+        <v>-0.3573514089201407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.34490809226474</v>
+        <v>-7.22966503413906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.990120791904054</v>
+        <v>-9.259860686183737</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4882784819082829</v>
+        <v>-0.4711940377370852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.105644129016619</v>
+        <v>-0.05289703221852902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4281484891349171</v>
+        <v>-0.4245757868184245</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.324298116599973</v>
+        <v>-0.3229216232335186</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.936419957873827</v>
+        <v>2.473836219047613</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.0197321472343</v>
+        <v>5.895416949661429</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.07000940901013332</v>
+        <v>0.4122976303273858</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.03909215443891233</v>
+        <v>-0.4295728245819046</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2293975072873319</v>
+        <v>0.3257277074598479</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9812832857554212</v>
+        <v>0.9462547608672867</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.003397803938667098</v>
+        <v>0.03092039380646754</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.001820458847335782</v>
+        <v>-0.01217724526385396</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.668493492715139</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3.619103554630892</v>
+        <v>3.619103554630893</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.021189971557615</v>
+        <v>5.428325090814597</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.708191648241657</v>
+        <v>5.906957037276492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8046379456538848</v>
+        <v>0.7131036576264334</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.60979228479202</v>
+        <v>10.26481545046059</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9013288306109406</v>
+        <v>1.1805033791297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.276104364258249</v>
+        <v>1.028574410704743</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06379328610415534</v>
+        <v>0.05737638392164655</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.076971847841545</v>
+        <v>1.005145391092608</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.42334946925471</v>
+        <v>10.19985417129288</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.19838237320171</v>
+        <v>12.03238024323442</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.207186993133041</v>
+        <v>9.245649843702818</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.70425106529453</v>
+        <v>18.71052512181391</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10.24740884802657</v>
+        <v>9.858622951713185</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.876213316381282</v>
+        <v>9.265912884101432</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.658113042014979</v>
+        <v>1.543867178841465</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>8.496603679311299</v>
+        <v>8.596747610006267</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>0.7544399965437834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.8868316280008171</v>
+        <v>-0.8868316280008198</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2012225827998319</v>
@@ -1249,7 +1249,7 @@
         <v>0.06036825734444943</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.04768757592061726</v>
+        <v>-0.0476875759206174</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1587806426749004</v>
+        <v>0.03774217577552391</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1697766786416251</v>
+        <v>0.3065994871947732</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8561645194397246</v>
+        <v>-1.041969512038572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.852544767372117</v>
+        <v>-2.581390268074624</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01810555789176224</v>
+        <v>0.001556243885839693</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01954821014017586</v>
+        <v>0.03248769405683013</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.06406612753121077</v>
+        <v>-0.07899448196896958</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1417984056935176</v>
+        <v>-0.1310450936354257</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.817006117310693</v>
+        <v>2.967169923361618</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.018578796459682</v>
+        <v>3.083927918335478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.417538418757368</v>
+        <v>2.377401813905628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7565277048184064</v>
+        <v>1.032588626457364</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4154004942297762</v>
+        <v>0.4385106021684675</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.395512781685499</v>
+        <v>0.3994202609966866</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.206265307609239</v>
+        <v>0.1984611401406264</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.04093069038420098</v>
+        <v>0.0599722016583598</v>
       </c>
     </row>
     <row r="25">
